--- a/data/xlsx_edit/physrost05.xlsx
+++ b/data/xlsx_edit/physrost05.xlsx
@@ -2801,8 +2801,8 @@
   </sheetPr>
   <dimension ref="A1:O766"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/xlsx_edit/physrost05.xlsx
+++ b/data/xlsx_edit/physrost05.xlsx
@@ -2801,8 +2801,8 @@
   </sheetPr>
   <dimension ref="A1:O766"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
